--- a/data/financial_statements/soci/BBWI.xlsx
+++ b/data/financial_statements/soci/BBWI.xlsx
@@ -14,9 +14,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2019-10-31</t>
+  </si>
+  <si>
+    <t>2019-07-31</t>
+  </si>
+  <si>
+    <t>2019-04-30</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>2018-10-31</t>
+  </si>
+  <si>
+    <t>2018-07-31</t>
+  </si>
+  <si>
+    <t>2018-04-30</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
+    <t>2017-07-31</t>
+  </si>
+  <si>
+    <t>2017-04-30</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
+  </si>
+  <si>
+    <t>2016-10-31</t>
+  </si>
+  <si>
+    <t>2016-07-31</t>
+  </si>
+  <si>
+    <t>2016-04-30</t>
+  </si>
+  <si>
+    <t>2016-01-31</t>
+  </si>
+  <si>
+    <t>2015-10-31</t>
+  </si>
+  <si>
+    <t>2015-07-31</t>
+  </si>
+  <si>
+    <t>2015-04-30</t>
+  </si>
+  <si>
+    <t>2015-01-31</t>
+  </si>
+  <si>
+    <t>2014-10-31</t>
+  </si>
+  <si>
+    <t>2014-07-31</t>
+  </si>
+  <si>
+    <t>2014-04-30</t>
+  </si>
+  <si>
+    <t>2014-01-31</t>
+  </si>
+  <si>
+    <t>2013-10-31</t>
+  </si>
+  <si>
+    <t>2013-07-31</t>
+  </si>
+  <si>
+    <t>2013-04-30</t>
+  </si>
+  <si>
+    <t>2013-01-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -128,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,138 +613,138 @@
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44773</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44681</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44592</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44500</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44408</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44316</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44227</v>
-      </c>
-      <c r="L1" s="2">
-        <v>44135</v>
-      </c>
-      <c r="M1" s="2">
-        <v>44043</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43951</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43861</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43769</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43677</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43585</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43496</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43404</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43312</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43220</v>
-      </c>
-      <c r="W1" s="2">
-        <v>43131</v>
-      </c>
-      <c r="X1" s="2">
-        <v>43039</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42947</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42855</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42766</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42674</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42582</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42490</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42400</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42308</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42216</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>42124</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>42035</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41943</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41851</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41759</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41670</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41578</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41486</v>
-      </c>
-      <c r="AP1" s="2">
-        <v>41394</v>
-      </c>
-      <c r="AQ1" s="2">
-        <v>41305</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B2">
         <v>1604000000</v>
@@ -636,7 +756,7 @@
         <v>1450000000</v>
       </c>
       <c r="E2">
-        <v>3027403000</v>
+        <v>3027000000</v>
       </c>
       <c r="F2">
         <v>3027000000</v>
@@ -754,8 +874,8 @@
       </c>
     </row>
     <row r="3" spans="1:43">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B3">
         <v>-0.4701</v>
@@ -767,7 +887,7 @@
         <v>-0.1374</v>
       </c>
       <c r="E3">
-        <v>0.7766</v>
+        <v>0.7764</v>
       </c>
       <c r="F3">
         <v>1.0592</v>
@@ -885,8 +1005,8 @@
       </c>
     </row>
     <row r="4" spans="1:43">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B4">
         <v>926000000</v>
@@ -898,13 +1018,13 @@
         <v>781000000</v>
       </c>
       <c r="E4">
-        <v>1580975000</v>
+        <v>1581000000</v>
       </c>
       <c r="F4">
         <v>1581000000</v>
       </c>
       <c r="G4">
-        <v>842000000</v>
+        <v>841000000</v>
       </c>
       <c r="H4">
         <v>842000000</v>
@@ -1016,8 +1136,8 @@
       </c>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B5">
         <v>678000000</v>
@@ -1029,13 +1149,13 @@
         <v>669000000</v>
       </c>
       <c r="E5">
-        <v>1446428000</v>
+        <v>1446000000</v>
       </c>
       <c r="F5">
         <v>1446000000</v>
       </c>
       <c r="G5">
-        <v>839000000</v>
+        <v>840000000</v>
       </c>
       <c r="H5">
         <v>839000000</v>
@@ -1147,8 +1267,8 @@
       </c>
     </row>
     <row r="6" spans="1:43">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B6">
         <v>476000000</v>
@@ -1275,8 +1395,8 @@
       </c>
     </row>
     <row r="7" spans="1:43">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B7">
         <v>202000000</v>
@@ -1400,8 +1520,8 @@
       </c>
     </row>
     <row r="8" spans="1:43">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B8">
         <v>86000000</v>
@@ -1447,8 +1567,8 @@
       </c>
     </row>
     <row r="9" spans="1:43">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B9">
         <v>86000000</v>
@@ -1572,26 +1692,26 @@
       </c>
     </row>
     <row r="10" spans="1:43">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B10">
-        <v>-83000000</v>
+        <v>3000000</v>
       </c>
       <c r="C10">
-        <v>-84000000</v>
+        <v>2000000</v>
       </c>
       <c r="D10">
-        <v>-88000000</v>
+        <v>1000000</v>
       </c>
       <c r="E10">
-        <v>-88434000</v>
+        <v>-2000000</v>
       </c>
       <c r="F10">
         <v>-2000000</v>
       </c>
       <c r="G10">
-        <v>-182000000</v>
+        <v>86000000</v>
       </c>
       <c r="H10">
         <v>87000000</v>
@@ -1703,8 +1823,8 @@
       </c>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B11">
         <v>119000000</v>
@@ -1716,7 +1836,7 @@
         <v>192000000</v>
       </c>
       <c r="E11">
-        <v>790774000</v>
+        <v>791000000</v>
       </c>
       <c r="F11">
         <v>791000000</v>
@@ -1834,8 +1954,8 @@
       </c>
     </row>
     <row r="12" spans="1:43">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B12">
         <v>28000000</v>
@@ -1847,7 +1967,7 @@
         <v>37000000</v>
       </c>
       <c r="E12">
-        <v>198214000</v>
+        <v>198000000</v>
       </c>
       <c r="F12">
         <v>198000000</v>
@@ -1965,8 +2085,8 @@
       </c>
     </row>
     <row r="13" spans="1:43">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B13">
         <v>91000000</v>
@@ -2090,8 +2210,8 @@
       </c>
     </row>
     <row r="14" spans="1:43">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B14">
         <v>91000000</v>
@@ -2103,7 +2223,7 @@
         <v>155000000</v>
       </c>
       <c r="E14">
-        <v>594866000</v>
+        <v>595000000</v>
       </c>
       <c r="F14">
         <v>595000000</v>
@@ -2221,8 +2341,8 @@
       </c>
     </row>
     <row r="15" spans="1:43">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B15">
         <v>0.4</v>
@@ -2352,8 +2472,8 @@
       </c>
     </row>
     <row r="16" spans="1:43">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B16">
         <v>0.4</v>
@@ -2480,8 +2600,8 @@
       </c>
     </row>
     <row r="17" spans="1:43">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B17">
         <v>228000000</v>
@@ -2493,7 +2613,7 @@
         <v>240000000</v>
       </c>
       <c r="E17">
-        <v>260611000</v>
+        <v>261000000</v>
       </c>
       <c r="F17">
         <v>261000000</v>
@@ -2611,8 +2731,8 @@
       </c>
     </row>
     <row r="18" spans="1:43">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B18">
         <v>229000000</v>
@@ -2624,7 +2744,7 @@
         <v>243000000</v>
       </c>
       <c r="E18">
-        <v>260611000</v>
+        <v>261000000</v>
       </c>
       <c r="F18">
         <v>261000000</v>
@@ -2742,8 +2862,8 @@
       </c>
     </row>
     <row r="19" spans="1:43">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B19">
         <v>0.4227</v>
@@ -2755,13 +2875,13 @@
         <v>0.4614</v>
       </c>
       <c r="E19">
-        <v>0.4778</v>
+        <v>0.4777</v>
       </c>
       <c r="F19">
         <v>0.4777</v>
       </c>
       <c r="G19">
-        <v>0.4991</v>
+        <v>0.4997</v>
       </c>
       <c r="H19">
         <v>0.4991</v>
@@ -2873,8 +2993,8 @@
       </c>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B20">
         <v>0.1259</v>
@@ -2886,7 +3006,7 @@
         <v>0.1931</v>
       </c>
       <c r="E20">
-        <v>0.2904</v>
+        <v>0.2905</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3004,8 +3124,8 @@
       </c>
     </row>
     <row r="21" spans="1:43">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B21">
         <v>0.0742</v>
@@ -3017,7 +3137,7 @@
         <v>0.1324</v>
       </c>
       <c r="E21">
-        <v>0.2612</v>
+        <v>0.2613</v>
       </c>
       <c r="F21">
         <v>0.2613</v>
@@ -3135,8 +3255,8 @@
       </c>
     </row>
     <row r="22" spans="1:43">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B22">
         <v>0.0567</v>
@@ -3148,7 +3268,7 @@
         <v>0.1069</v>
       </c>
       <c r="E22">
-        <v>0.1965</v>
+        <v>0.1966</v>
       </c>
       <c r="F22">
         <v>0.1966</v>
@@ -3266,8 +3386,8 @@
       </c>
     </row>
     <row r="23" spans="1:43">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B23">
         <v>258000000</v>
@@ -3279,10 +3399,10 @@
         <v>333000000</v>
       </c>
       <c r="E23">
-        <v>932208300</v>
+        <v>1090000000</v>
       </c>
       <c r="G23">
-        <v>461000000</v>
+        <v>462000000</v>
       </c>
       <c r="I23">
         <v>513000000</v>
@@ -3391,8 +3511,8 @@
       </c>
     </row>
     <row r="24" spans="1:43">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B24">
         <v>202000000</v>
@@ -3516,8 +3636,8 @@
       </c>
     </row>
     <row r="25" spans="1:43">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B25">
         <v>91000000</v>
@@ -3641,8 +3761,8 @@
       </c>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E26">
         <v>2306000</v>
@@ -3664,8 +3784,8 @@
       </c>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B27">
         <v>91000000</v>
@@ -3677,13 +3797,13 @@
         <v>155000000</v>
       </c>
       <c r="E27">
-        <v>594866000</v>
+        <v>593000000</v>
       </c>
       <c r="F27">
         <v>593000000</v>
       </c>
       <c r="G27">
-        <v>88000000</v>
+        <v>177000000</v>
       </c>
       <c r="H27">
         <v>177000000</v>
@@ -3795,8 +3915,8 @@
       </c>
     </row>
     <row r="28" spans="1:43">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B28">
         <v>0.4</v>
@@ -3920,8 +4040,8 @@
       </c>
     </row>
     <row r="29" spans="1:43">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B29">
         <v>0.4</v>
@@ -4045,8 +4165,8 @@
       </c>
     </row>
     <row r="30" spans="1:43">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E30">
         <v>0.008800000000000001</v>
@@ -4068,8 +4188,8 @@
       </c>
     </row>
     <row r="31" spans="1:43">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E31">
         <v>0.008800000000000001</v>
@@ -4091,8 +4211,8 @@
       </c>
     </row>
     <row r="32" spans="1:43">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B32">
         <v>0.3991</v>
@@ -4216,8 +4336,8 @@
       </c>
     </row>
     <row r="33" spans="1:43">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B33">
         <v>0.3974</v>
@@ -4341,8 +4461,8 @@
       </c>
     </row>
     <row r="34" spans="1:43">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B34">
         <v>229144000</v>
@@ -4466,8 +4586,8 @@
       </c>
     </row>
     <row r="35" spans="1:43">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B35">
         <v>0.1608</v>
@@ -4479,13 +4599,13 @@
         <v>0.2297</v>
       </c>
       <c r="E35">
-        <v>0.3079</v>
+        <v>0.3601</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.2742</v>
+        <v>0.2748</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -4597,8 +4717,8 @@
       </c>
     </row>
     <row r="36" spans="1:43">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B36">
         <v>-0.008699999999999999</v>
